--- a/Kubernetes-Commands.xlsx
+++ b/Kubernetes-Commands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\A-K8S\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\K8S - Kubernetes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9B2D73-91C1-4D87-BD1A-4D22B5BF9440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3260E202-2187-47A0-970F-D0D63BCDAA33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FD72DAEC-706C-4818-B11F-A045285E270B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FD72DAEC-706C-4818-B11F-A045285E270B}"/>
   </bookViews>
   <sheets>
     <sheet name="K8s Commands" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="163">
   <si>
     <t>minikube start</t>
   </si>
@@ -496,12 +490,99 @@
   <si>
     <t>Course by Denis Astahov</t>
   </si>
+  <si>
+    <t>kubectl apply -f https://projectcontour.io/quickstart/contour.yaml</t>
+  </si>
+  <si>
+    <t>Создать Ingress Controller Contour</t>
+  </si>
+  <si>
+    <t>kubectl get services -n projectcontour envoy -o wide</t>
+  </si>
+  <si>
+    <t>Показать Ingess Controller Load Balancer данные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kubectl create deployment main    --image=adv4000/k8sphp:latest </t>
+  </si>
+  <si>
+    <t>kubectl create deployment web1    --image=adv4000/k8sphp:version1</t>
+  </si>
+  <si>
+    <t>kubectl create deployment web2    --image=adv4000/k8sphp:version2</t>
+  </si>
+  <si>
+    <t>kubectl scale deployment main    --replicas 2</t>
+  </si>
+  <si>
+    <t>kubectl scale deployment web1    --replicas 2</t>
+  </si>
+  <si>
+    <t>kubectl scale deployment web2    --replicas 2</t>
+  </si>
+  <si>
+    <t>kubectl expose deployment main   --port 80   # --type=ClusterIP  DEFAULT</t>
+  </si>
+  <si>
+    <t>kubectl expose deployment web1   --port 80</t>
+  </si>
+  <si>
+    <t>kubectl expose deployment web2   --port 80</t>
+  </si>
+  <si>
+    <t>kubectl expose deployment tomcat --port 8080</t>
+  </si>
+  <si>
+    <t>kubectl get services -o wide</t>
+  </si>
+  <si>
+    <t>kubectl get ingress</t>
+  </si>
+  <si>
+    <t>kubectl describe ingress</t>
+  </si>
+  <si>
+    <t>kubectl delete ns projectcontour</t>
+  </si>
+  <si>
+    <t>Создать Deployment</t>
+  </si>
+  <si>
+    <t>Создать Service, по умолчанию тип ClusterIP</t>
+  </si>
+  <si>
+    <t>Показать данные всех Services</t>
+  </si>
+  <si>
+    <t>kubectl apply -f ingress-hosts.yaml</t>
+  </si>
+  <si>
+    <t>kubectl apply -f ingress-paths.yaml</t>
+  </si>
+  <si>
+    <t>Создать Ingress Rules из файла</t>
+  </si>
+  <si>
+    <t>Показать все созданные Ingress Rules</t>
+  </si>
+  <si>
+    <t>Показать все созданные Ingress Rules подробно</t>
+  </si>
+  <si>
+    <t>Стереть полностью Ingress Controller Contour</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/191WWNpjJ2za6-nbG4ZoUMXMpUK8KlCIosvQB0f-oq3k/</t>
+  </si>
+  <si>
+    <t>Comparison of Ingress Controllers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,6 +627,21 @@
     </font>
     <font>
       <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -640,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -651,6 +747,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -965,16 +1066,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC433D39-1F4B-4563-8B50-9BB3F575A520}">
-  <dimension ref="B1:C128"/>
+  <dimension ref="B1:C157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="131.6640625" customWidth="1"/>
-    <col min="3" max="3" width="111.44140625" customWidth="1"/>
+    <col min="2" max="2" width="123.6640625" customWidth="1"/>
+    <col min="3" max="3" width="88.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="61.2" x14ac:dyDescent="1.1000000000000001">
@@ -1723,6 +1824,177 @@
         <v>131</v>
       </c>
     </row>
+    <row r="130" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="131" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B132" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B133" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B134" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B135" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B136" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B137" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B138" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B139" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B140" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B141" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B142" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B143" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B144" s="3"/>
+      <c r="C144" s="11"/>
+    </row>
+    <row r="145" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B145" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B146" s="3"/>
+      <c r="C146" s="11"/>
+    </row>
+    <row r="147" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B147" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B148" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B149" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B150" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B151" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="B156" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="B157" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Kubernetes-Commands.xlsx
+++ b/Kubernetes-Commands.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\K8S - Kubernetes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\K8S - Kubernetes\k8s-lessons-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3260E202-2187-47A0-970F-D0D63BCDAA33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A8C79F-5DF6-4768-B017-F3B131231098}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FD72DAEC-706C-4818-B11F-A045285E270B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="188">
   <si>
     <t>minikube start</t>
   </si>
@@ -576,6 +576,81 @@
   </si>
   <si>
     <t>Comparison of Ingress Controllers</t>
+  </si>
+  <si>
+    <t>helm list</t>
+  </si>
+  <si>
+    <t>helm delete app1</t>
+  </si>
+  <si>
+    <t>Удалить Деплоймент Helm Chart app1</t>
+  </si>
+  <si>
+    <t>helm install app1 Denis-Chart/</t>
+  </si>
+  <si>
+    <t>helm upgrade app1 Denis-Chart/ --set container.image=adv4000/k8sphp:version2</t>
+  </si>
+  <si>
+    <t>helm search hub</t>
+  </si>
+  <si>
+    <t>helm search repo</t>
+  </si>
+  <si>
+    <t>helm repo add bitnami https://charts.bitnami.com/bitnami</t>
+  </si>
+  <si>
+    <t>helm install my_website bitnami/apache -f my_values.yaml</t>
+  </si>
+  <si>
+    <t>helm version</t>
+  </si>
+  <si>
+    <t>Показать все задеплоенные Helm Releases</t>
+  </si>
+  <si>
+    <t>Пока версию Helm</t>
+  </si>
+  <si>
+    <t>Показать Helm Chart с общего списка Hub</t>
+  </si>
+  <si>
+    <t>Показать Helm Chart из добавленных Repos</t>
+  </si>
+  <si>
+    <t>Добавить Helm Chart Repo от bitnami</t>
+  </si>
+  <si>
+    <t>Задеплоить Helm Chart bitnami/apache с нашими переменными</t>
+  </si>
+  <si>
+    <t>Задеплоить Helm Chart app1 из директории Denis-Chart</t>
+  </si>
+  <si>
+    <t>Запаковать Helm Chart в tgz архив</t>
+  </si>
+  <si>
+    <t>helm install app2 App-HelmChart-0.1.0.tgz</t>
+  </si>
+  <si>
+    <t>Задеплоить Helm Chart app2 из архива</t>
+  </si>
+  <si>
+    <t>Обновить Деплоймент app1</t>
+  </si>
+  <si>
+    <t>helm package Denis-Chart/</t>
+  </si>
+  <si>
+    <t>helm create MyChart</t>
+  </si>
+  <si>
+    <t>Сделать скелет Helm Chart в директории MyChart</t>
+  </si>
+  <si>
+    <t>helm uninstall app1</t>
   </si>
 </sst>
 </file>
@@ -1066,16 +1141,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC433D39-1F4B-4563-8B50-9BB3F575A520}">
-  <dimension ref="B1:C157"/>
+  <dimension ref="B1:C177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="123.6640625" customWidth="1"/>
-    <col min="3" max="3" width="88.5546875" customWidth="1"/>
+    <col min="2" max="2" width="113" customWidth="1"/>
+    <col min="3" max="3" width="92.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="61.2" x14ac:dyDescent="1.1000000000000001">
@@ -1995,6 +2070,135 @@
         <v>161</v>
       </c>
     </row>
+    <row r="159" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="160" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B160" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B161" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B162" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B163" s="3"/>
+      <c r="C163" s="4"/>
+    </row>
+    <row r="164" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B164" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B165" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B166" s="3"/>
+      <c r="C166" s="4"/>
+    </row>
+    <row r="167" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B167" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B168" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B169" s="3"/>
+      <c r="C169" s="4"/>
+    </row>
+    <row r="170" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B170" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B171" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B172" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B173" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B174" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B175" s="3"/>
+      <c r="C175" s="4"/>
+    </row>
+    <row r="176" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B176" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B177" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Kubernetes-Commands.xlsx
+++ b/Kubernetes-Commands.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\K8S - Kubernetes\k8s-lessons-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A8C79F-5DF6-4768-B017-F3B131231098}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2805D233-0320-4246-B405-05080670EF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FD72DAEC-706C-4818-B11F-A045285E270B}"/>
   </bookViews>
@@ -265,9 +265,6 @@
     <t>kubectl get pods</t>
   </si>
   <si>
-    <t>kubectl run hello --generator=run-pod/v1 --image=nginx:latest --port=80</t>
-  </si>
-  <si>
     <t>Показать все Pods</t>
   </si>
   <si>
@@ -320,15 +317,9 @@
     <t>kubectl logs hello</t>
   </si>
   <si>
-    <t>kubectl exec my-web date</t>
-  </si>
-  <si>
     <t>Запустить команду date на Pod my-web</t>
   </si>
   <si>
-    <t>kubectl exec -it my-web bash</t>
-  </si>
-  <si>
     <t>Запустить команду bash интерактивно на Pod my-web</t>
   </si>
   <si>
@@ -651,6 +642,15 @@
   </si>
   <si>
     <t>helm uninstall app1</t>
+  </si>
+  <si>
+    <t>kubectl run hello --image=nginx:latest --port=80</t>
+  </si>
+  <si>
+    <t>kubectl exec my-web -- date</t>
+  </si>
+  <si>
+    <t>kubectl exec -it my-web -- bash</t>
   </si>
 </sst>
 </file>
@@ -1143,22 +1143,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC433D39-1F4B-4563-8B50-9BB3F575A520}">
   <dimension ref="B1:C177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="113" customWidth="1"/>
+    <col min="2" max="2" width="76.21875" customWidth="1"/>
     <col min="3" max="3" width="92.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="61.2" x14ac:dyDescent="1.1000000000000001">
       <c r="B1" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1602,79 +1602,79 @@
         <v>68</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B80" s="3" t="s">
-        <v>69</v>
+        <v>185</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B81" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B82" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B83" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B84" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B85" s="3" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B86" s="3" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B87" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B88" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1688,58 +1688,58 @@
     </row>
     <row r="94" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B94" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B95" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B96" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B97" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B98" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B99" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B100" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
@@ -1748,50 +1748,50 @@
     </row>
     <row r="102" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B102" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B103" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B104" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B105" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B106" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B107" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
@@ -1800,10 +1800,10 @@
     </row>
     <row r="109" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B109" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1817,74 +1817,74 @@
     </row>
     <row r="118" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B118" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B119" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B120" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="121" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B121" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B122" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B123" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B124" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B125" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B126" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
@@ -1893,10 +1893,10 @@
     </row>
     <row r="128" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B128" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1910,98 +1910,98 @@
     </row>
     <row r="132" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B132" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B133" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B134" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B135" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B136" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B137" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="138" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B138" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="139" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B139" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="140" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B140" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B141" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B142" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B143" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="144" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
@@ -2010,10 +2010,10 @@
     </row>
     <row r="145" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B145" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="146" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
@@ -2022,52 +2022,52 @@
     </row>
     <row r="147" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B147" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B148" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="149" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B149" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="150" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B150" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="151" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B151" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="156" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B156" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="157" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B157" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2081,18 +2081,18 @@
     </row>
     <row r="161" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B161" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="162" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B162" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="163" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
@@ -2101,18 +2101,18 @@
     </row>
     <row r="164" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B164" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="165" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B165" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="166" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
@@ -2121,18 +2121,18 @@
     </row>
     <row r="167" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B167" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="168" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B168" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
@@ -2141,42 +2141,42 @@
     </row>
     <row r="170" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B170" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B171" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="172" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B172" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="173" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B173" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="174" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B174" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="175" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
@@ -2185,18 +2185,18 @@
     </row>
     <row r="176" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B176" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="177" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B177" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
